--- a/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
+++ b/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossiers\RODI\src\D1640\Portals\0\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9D52C0-6B4D-4546-A107-86EB14E242E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAB82BD-00E0-4AD0-A91F-7E809A538EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
+    <workbookView xWindow="53790" yWindow="3795" windowWidth="21600" windowHeight="11295" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche renseignement" sheetId="5" r:id="rId1"/>
@@ -674,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -794,15 +794,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -814,11 +805,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -861,6 +849,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1183,72 +1210,72 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77:C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="82.6640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="124.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="124.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="36"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="40" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:6" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="47"/>
     </row>
-    <row r="4" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="50"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>A5+1</f>
         <v>2</v>
@@ -1258,7 +1285,7 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" ref="A7:A25" si="0">A6+1</f>
         <v>3</v>
@@ -1268,7 +1295,7 @@
       </c>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1276,9 +1303,9 @@
       <c r="B8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="56"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1286,9 +1313,9 @@
       <c r="B9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="57"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="52"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1296,9 +1323,9 @@
       <c r="B10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="57"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="54"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1308,7 +1335,7 @@
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1318,7 +1345,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1328,7 +1355,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f>A12+1</f>
         <v>9</v>
@@ -1338,7 +1365,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1348,7 +1375,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1358,7 +1385,7 @@
       </c>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1368,7 +1395,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1378,7 +1405,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1388,7 +1415,7 @@
       </c>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1398,7 +1425,7 @@
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1408,7 +1435,7 @@
       </c>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f>A20+1</f>
         <v>16</v>
@@ -1419,7 +1446,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f>A21+1</f>
         <v>17</v>
@@ -1430,7 +1457,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1440,7 +1467,7 @@
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1450,7 +1477,7 @@
       </c>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="19" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +1486,7 @@
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
     </row>
-    <row r="27" spans="1:6" ht="51.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="51.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f>1+A25</f>
         <v>20</v>
@@ -1467,12 +1494,12 @@
       <c r="B27" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f>1+A27</f>
         <v>21</v>
@@ -1485,7 +1512,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f>1+A28</f>
         <v>22</v>
@@ -1498,7 +1525,7 @@
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
     </row>
-    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f>1+A29</f>
         <v>23</v>
@@ -1508,7 +1535,7 @@
       </c>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f>1+A30</f>
         <v>24</v>
@@ -1518,7 +1545,7 @@
       </c>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f>1+A31</f>
         <v>25</v>
@@ -1530,7 +1557,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="19" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1565,7 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="1:6" ht="98.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="98.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f>1+A32</f>
         <v>26</v>
@@ -1548,7 +1575,7 @@
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f>1+A34</f>
         <v>27</v>
@@ -1560,7 +1587,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="53.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f>1+A35</f>
         <v>28</v>
@@ -1572,7 +1599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f>1+A36</f>
         <v>29</v>
@@ -1587,7 +1614,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="19" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1623,7 @@
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
     </row>
-    <row r="39" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f>1+A37</f>
         <v>30</v>
@@ -1609,7 +1636,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="113.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>1+A39</f>
         <v>31</v>
@@ -1622,7 +1649,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f>1+A40</f>
         <v>32</v>
@@ -1635,12 +1662,12 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="45" t="str">
         <f>B2</f>
         <v>ANNEE</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="73">
         <f>C2</f>
         <v>0</v>
       </c>
@@ -1648,7 +1675,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f>1+A41</f>
         <v>33</v>
@@ -1656,28 +1683,28 @@
       <c r="B43" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="30"/>
       <c r="B44" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="32"/>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="41" t="s">
+      <c r="F44" s="74" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f>1+A43</f>
         <v>34</v>
@@ -1685,12 +1712,12 @@
       <c r="B45" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ref="A46:A54" si="1">1+A45</f>
         <v>35</v>
@@ -1698,9 +1725,9 @@
       <c r="B46" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="C46" s="75"/>
+    </row>
+    <row r="47" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1712,7 +1739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1720,9 +1747,9 @@
       <c r="B48" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="C48" s="75"/>
+    </row>
+    <row r="49" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1734,7 +1761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1742,9 +1769,9 @@
       <c r="B50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C50" s="75"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1752,9 +1779,9 @@
       <c r="B51" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C51" s="75"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1762,9 +1789,9 @@
       <c r="B52" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="51"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C52" s="76"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1772,9 +1799,9 @@
       <c r="B53" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="51"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C53" s="76"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1782,9 +1809,9 @@
       <c r="B54" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="51"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C54" s="76"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" ref="A55:A60" si="2">1+A54</f>
         <v>44</v>
@@ -1792,9 +1819,9 @@
       <c r="B55" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="51"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C55" s="76"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -1802,9 +1829,9 @@
       <c r="B56" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="51"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C56" s="76"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -1812,9 +1839,9 @@
       <c r="B57" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="51"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C57" s="76"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -1822,9 +1849,9 @@
       <c r="B58" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C58" s="77"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -1832,9 +1859,9 @@
       <c r="B59" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="51"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C59" s="76"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -1842,18 +1869,18 @@
       <c r="B60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="51"/>
-    </row>
-    <row r="61" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="67" t="s">
+      <c r="C60" s="76"/>
+    </row>
+    <row r="61" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f>1+A60</f>
         <v>50</v>
@@ -1868,7 +1895,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f>1+A62</f>
         <v>51</v>
@@ -1883,7 +1910,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f>1+A63</f>
         <v>52</v>
@@ -1898,7 +1925,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f>1+A64</f>
         <v>53</v>
@@ -1913,12 +1940,12 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="B66" s="45" t="str">
         <f>B2</f>
         <v>ANNEE</v>
       </c>
-      <c r="C66" s="45">
+      <c r="C66" s="73">
         <f>C2</f>
         <v>0</v>
       </c>
@@ -1926,7 +1953,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f>1+A65</f>
         <v>54</v>
@@ -1934,14 +1961,14 @@
       <c r="B67" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="58" t="e">
+      <c r="C67" s="53" t="e">
         <v>#N/A</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="19" t="s">
         <v>16</v>
       </c>
@@ -1950,7 +1977,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" ht="120" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="116.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f>1+A67</f>
         <v>55</v>
@@ -1965,7 +1992,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" ht="144" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="139.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f>1+A69</f>
         <v>56</v>
@@ -1980,7 +2007,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f>1+A70</f>
         <v>57</v>
@@ -1995,7 +2022,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="81.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f>1+A71</f>
         <v>58</v>
@@ -2008,22 +2035,22 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="34"/>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="F73" s="41" t="s">
+      <c r="F73" s="72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f>1+A72</f>
         <v>59</v>
@@ -2031,9 +2058,9 @@
       <c r="B74" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="49"/>
-    </row>
-    <row r="75" spans="1:6" ht="96" x14ac:dyDescent="0.4">
+      <c r="C74" s="81"/>
+    </row>
+    <row r="75" spans="1:6" ht="96" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f>1+A74</f>
         <v>60</v>
@@ -2041,12 +2068,12 @@
       <c r="B75" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f>1+A75</f>
         <v>61</v>
@@ -2055,11 +2082,11 @@
         <v>34</v>
       </c>
       <c r="C76" s="17"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+    </row>
+    <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f>1+A76</f>
         <v>62</v>
@@ -2067,12 +2094,12 @@
       <c r="B77" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" ht="96" x14ac:dyDescent="0.4">
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+    </row>
+    <row r="78" spans="1:6" ht="96" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f>1+A77</f>
         <v>63</v>
@@ -2080,12 +2107,12 @@
       <c r="B78" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-    </row>
-    <row r="79" spans="1:6" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C78" s="79"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+    </row>
+    <row r="79" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <f>1+A78</f>
         <v>64</v>
@@ -2098,16 +2125,16 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="69" t="s">
+    <row r="80" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="70"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f>1+A79</f>
         <v>65</v>
@@ -2120,7 +2147,7 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f>1+A81</f>
         <v>66</v>
@@ -2133,7 +2160,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f>1+A82</f>
         <v>67</v>
@@ -2146,7 +2173,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="19" t="s">
         <v>20</v>
       </c>
@@ -2155,16 +2182,16 @@
       <c r="E84" s="33"/>
       <c r="F84" s="33"/>
     </row>
-    <row r="85" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="71" t="s">
+    <row r="85" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="72"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f>1+A83</f>
         <v>68</v>
@@ -2179,7 +2206,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ref="A87:A97" si="3">1+A86</f>
         <v>69</v>
@@ -2194,7 +2221,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -2209,7 +2236,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -2224,7 +2251,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -2239,7 +2266,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -2254,7 +2281,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -2269,7 +2296,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -2284,7 +2311,7 @@
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -2299,7 +2326,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -2314,7 +2341,7 @@
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -2329,7 +2356,7 @@
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -2344,7 +2371,7 @@
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f>1+A97</f>
         <v>80</v>
@@ -2359,7 +2386,7 @@
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f>1+A96</f>
         <v>79</v>
@@ -2374,7 +2401,7 @@
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f>1+A97</f>
         <v>80</v>
@@ -2389,16 +2416,16 @@
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="71" t="s">
+    <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="B101" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="72"/>
+      <c r="C101" s="66"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f>1+A100</f>
         <v>81</v>
@@ -2413,7 +2440,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f>1+A102</f>
         <v>82</v>
@@ -2428,7 +2455,7 @@
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f>1+A103</f>
         <v>83</v>
@@ -2441,7 +2468,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f>1+A104</f>
         <v>84</v>
@@ -2454,7 +2481,7 @@
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f>1+A105</f>
         <v>85</v>
@@ -2469,16 +2496,16 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B107" s="71" t="s">
+    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+      <c r="B107" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C107" s="72"/>
+      <c r="C107" s="66"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f>1+A106</f>
         <v>86</v>
@@ -2491,7 +2518,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" ref="A109:A115" si="4">1+A108</f>
         <v>87</v>
@@ -2504,7 +2531,7 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -2517,7 +2544,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -2530,7 +2557,7 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -2543,7 +2570,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" ht="120" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" ht="116.25" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -2556,7 +2583,7 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -2569,7 +2596,7 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -2582,16 +2609,16 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="65" t="s">
+    <row r="116" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="66"/>
+      <c r="C116" s="60"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f>1+A115</f>
         <v>94</v>
@@ -2604,7 +2631,7 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f>1+A117</f>
         <v>95</v>
@@ -2617,7 +2644,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <f>1+A118</f>
         <v>96</v>
@@ -2625,21 +2652,21 @@
       <c r="B119" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="45">
+      <c r="C119" s="71">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="D119" s="45" t="str">
+      <c r="D119" s="71" t="str">
         <f>D44</f>
         <v>24-25</v>
       </c>
-      <c r="E119" s="45" t="str">
+      <c r="E119" s="71" t="str">
         <f>E44</f>
         <v>23-24</v>
       </c>
       <c r="F119" s="6"/>
     </row>
-    <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f>1+A119</f>
         <v>97</v>
@@ -2647,12 +2674,12 @@
       <c r="B120" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="59"/>
-      <c r="D120" s="59"/>
-      <c r="E120" s="60"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="69"/>
+      <c r="E120" s="70"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" ht="72" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f>1+A120</f>
         <v>98</v>
@@ -2660,12 +2687,12 @@
       <c r="B121" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C121" s="59"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="60"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="70"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" ht="48" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f>1+A121</f>
         <v>99</v>
@@ -2673,384 +2700,384 @@
       <c r="B122" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="59"/>
-      <c r="D122" s="59"/>
-      <c r="E122" s="59"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="69"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B123" s="48"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B124" s="48"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B125" s="48"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B126" s="48"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B127" s="48"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B128" s="48"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129" s="48"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130" s="48"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131" s="48"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132" s="48"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133" s="48"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134" s="48"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135" s="48"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136" s="48"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137" s="48"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138" s="48"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139" s="48"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140" s="48"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141" s="48"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142" s="48"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143" s="48"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144" s="48"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B145" s="48"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B146" s="48"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B147" s="48"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B148" s="48"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="48"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B150" s="48"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B151" s="48"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B152" s="48"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B153" s="48"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B154" s="48"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B155" s="48"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B156" s="48"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B157" s="48"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B158" s="48"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B159" s="48"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B160" s="48"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161" s="48"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162" s="48"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163" s="48"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164" s="48"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165" s="48"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166" s="48"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167" s="48"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168" s="48"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169" s="48"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170" s="48"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171" s="48"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172" s="48"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173" s="48"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174" s="48"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175" s="48"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176" s="48"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177" s="48"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178" s="48"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179" s="48"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180" s="48"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181" s="48"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182" s="48"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183" s="48"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184" s="48"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185" s="48"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186" s="48"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187" s="48"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188" s="48"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189" s="48"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190" s="48"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191" s="48"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192" s="48"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B193" s="48"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B194" s="48"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B195" s="48"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B196" s="48"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B197" s="48"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B198" s="48"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B199" s="48"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B200" s="48"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B201" s="48"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B202" s="48"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B203" s="48"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B204" s="48"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B205" s="48"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B206" s="48"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B207" s="48"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B208" s="48"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B209" s="48"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B210" s="48"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B211" s="48"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B212" s="48"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B213" s="48"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B214" s="48"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B215" s="48"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B216" s="48"/>
       <c r="C216" s="3"/>
     </row>

--- a/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
+++ b/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossiers\RODI\src\D1640\Portals\0\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAB82BD-00E0-4AD0-A91F-7E809A538EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F630D93-635D-4F92-AFD0-A330FAE57ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53790" yWindow="3795" windowWidth="21600" windowHeight="11295" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
+    <workbookView xWindow="11085" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche renseignement" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
   <si>
     <t>Date de Charte</t>
   </si>
@@ -787,16 +787,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -804,10 +798,55 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -849,45 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1210,10 +1210,10 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77:C78"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.3"/>
@@ -1232,12 +1232,12 @@
     <row r="1" spans="1:6" ht="124.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="36"/>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
@@ -1250,18 +1250,18 @@
       <c r="B3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:6" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1270,10 +1270,10 @@
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1303,7 +1303,7 @@
       <c r="B8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1313,7 +1313,7 @@
       <c r="B9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="50"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1323,7 +1323,7 @@
       <c r="B10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="51"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1380,10 +1380,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1491,10 +1491,10 @@
         <f>1+A25</f>
         <v>20</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
@@ -1504,10 +1504,10 @@
         <f>1+A27</f>
         <v>21</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
@@ -1517,10 +1517,10 @@
         <f>1+A28</f>
         <v>22</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
@@ -1667,7 +1667,7 @@
         <f>B2</f>
         <v>ANNEE</v>
       </c>
-      <c r="C42" s="73">
+      <c r="C42" s="56">
         <f>C2</f>
         <v>0</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="B43" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -1694,13 +1694,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="32"/>
-      <c r="D44" s="74" t="s">
+      <c r="D44" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="74" t="s">
+      <c r="F44" s="57" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1712,10 +1712,10 @@
       <c r="B45" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -1725,7 +1725,7 @@
       <c r="B46" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="75"/>
+      <c r="C46" s="58"/>
     </row>
     <row r="47" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -1747,7 +1747,7 @@
       <c r="B48" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="75"/>
+      <c r="C48" s="58"/>
     </row>
     <row r="49" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -1769,7 +1769,7 @@
       <c r="B50" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="75"/>
+      <c r="C50" s="58"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -1779,7 +1779,7 @@
       <c r="B51" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="75"/>
+      <c r="C51" s="58"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1789,7 +1789,7 @@
       <c r="B52" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="59"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
@@ -1799,7 +1799,7 @@
       <c r="B53" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="59"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1809,7 +1809,7 @@
       <c r="B54" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="59"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -1819,7 +1819,7 @@
       <c r="B55" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="76"/>
+      <c r="C55" s="59"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1829,7 +1829,7 @@
       <c r="B56" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="76"/>
+      <c r="C56" s="59"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -1839,7 +1839,7 @@
       <c r="B57" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="76"/>
+      <c r="C57" s="59"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -1849,7 +1849,7 @@
       <c r="B58" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="77"/>
+      <c r="C58" s="60"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -1859,7 +1859,7 @@
       <c r="B59" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="59"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -1869,13 +1869,13 @@
       <c r="B60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="76"/>
+      <c r="C60" s="59"/>
     </row>
     <row r="61" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="62"/>
+      <c r="C61" s="75"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -1945,7 +1945,7 @@
         <f>B2</f>
         <v>ANNEE</v>
       </c>
-      <c r="C66" s="73">
+      <c r="C66" s="56">
         <f>C2</f>
         <v>0</v>
       </c>
@@ -1958,12 +1958,10 @@
         <f>1+A65</f>
         <v>54</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="53" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="C67" s="66"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -2040,13 +2038,13 @@
         <v>17</v>
       </c>
       <c r="C73" s="34"/>
-      <c r="D73" s="72" t="s">
+      <c r="D73" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="72" t="s">
+      <c r="E73" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F73" s="72" t="s">
+      <c r="F73" s="55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2058,7 +2056,7 @@
       <c r="B74" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="81"/>
+      <c r="C74" s="64"/>
     </row>
     <row r="75" spans="1:6" ht="96" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
@@ -2068,10 +2066,10 @@
       <c r="B75" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -2082,9 +2080,9 @@
         <v>34</v>
       </c>
       <c r="C76" s="17"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
     </row>
     <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -2094,10 +2092,10 @@
       <c r="B77" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
     </row>
     <row r="78" spans="1:6" ht="96" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -2107,10 +2105,10 @@
       <c r="B78" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="79"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
     </row>
     <row r="79" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -2126,10 +2124,10 @@
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="64"/>
+      <c r="C80" s="77"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -2183,10 +2181,10 @@
       <c r="F84" s="33"/>
     </row>
     <row r="85" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="66"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -2417,10 +2415,10 @@
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="66"/>
+      <c r="C101" s="79"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -2497,10 +2495,10 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C107" s="66"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -2610,10 +2608,10 @@
       <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="59" t="s">
+      <c r="B116" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C116" s="60"/>
+      <c r="C116" s="73"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -2652,17 +2650,15 @@
       <c r="B119" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="71">
+      <c r="C119" s="54">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="D119" s="71" t="str">
-        <f>D44</f>
-        <v>24-25</v>
-      </c>
-      <c r="E119" s="71" t="str">
-        <f>E44</f>
-        <v>23-24</v>
+      <c r="D119" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E119" s="54" t="s">
+        <v>126</v>
       </c>
       <c r="F119" s="6"/>
     </row>
@@ -2674,9 +2670,9 @@
       <c r="B120" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="70"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="53"/>
       <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
@@ -2687,9 +2683,9 @@
       <c r="B121" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="70"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="53"/>
       <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
@@ -2700,385 +2696,385 @@
       <c r="B122" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="69"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
       <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="48"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="48"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="48"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="48"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="48"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="48"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="48"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="48"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="48"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="48"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="48"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="48"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="48"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="48"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="48"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="48"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="48"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="48"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B141" s="48"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="48"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="48"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B144" s="48"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="48"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B146" s="48"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" s="48"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" s="48"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B149" s="48"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B150" s="48"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="48"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="48"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B153" s="48"/>
+      <c r="B153" s="47"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="48"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B155" s="48"/>
+      <c r="B155" s="47"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B156" s="48"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="48"/>
+      <c r="B157" s="47"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="48"/>
+      <c r="B158" s="47"/>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B159" s="48"/>
+      <c r="B159" s="47"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B160" s="48"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="48"/>
+      <c r="B161" s="47"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="48"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="48"/>
+      <c r="B163" s="47"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" s="48"/>
+      <c r="B164" s="47"/>
       <c r="C164" s="3"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="48"/>
+      <c r="B165" s="47"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="48"/>
+      <c r="B166" s="47"/>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="48"/>
+      <c r="B167" s="47"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="48"/>
+      <c r="B168" s="47"/>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B169" s="48"/>
+      <c r="B169" s="47"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="48"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="3"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="48"/>
+      <c r="B171" s="47"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="48"/>
+      <c r="B172" s="47"/>
       <c r="C172" s="3"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B173" s="48"/>
+      <c r="B173" s="47"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B174" s="48"/>
+      <c r="B174" s="47"/>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B175" s="48"/>
+      <c r="B175" s="47"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B176" s="48"/>
+      <c r="B176" s="47"/>
       <c r="C176" s="3"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B177" s="48"/>
+      <c r="B177" s="47"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B178" s="48"/>
+      <c r="B178" s="47"/>
       <c r="C178" s="3"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B179" s="48"/>
+      <c r="B179" s="47"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B180" s="48"/>
+      <c r="B180" s="47"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B181" s="48"/>
+      <c r="B181" s="47"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B182" s="48"/>
+      <c r="B182" s="47"/>
       <c r="C182" s="3"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B183" s="48"/>
+      <c r="B183" s="47"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="48"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B185" s="48"/>
+      <c r="B185" s="47"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B186" s="48"/>
+      <c r="B186" s="47"/>
       <c r="C186" s="3"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B187" s="48"/>
+      <c r="B187" s="47"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B188" s="48"/>
+      <c r="B188" s="47"/>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B189" s="48"/>
+      <c r="B189" s="47"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B190" s="48"/>
+      <c r="B190" s="47"/>
       <c r="C190" s="3"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B191" s="48"/>
+      <c r="B191" s="47"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B192" s="48"/>
+      <c r="B192" s="47"/>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B193" s="48"/>
+      <c r="B193" s="47"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B194" s="48"/>
+      <c r="B194" s="47"/>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B195" s="48"/>
+      <c r="B195" s="47"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B196" s="48"/>
+      <c r="B196" s="47"/>
       <c r="C196" s="3"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B197" s="48"/>
+      <c r="B197" s="47"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B198" s="48"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="3"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B199" s="48"/>
+      <c r="B199" s="47"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B200" s="48"/>
+      <c r="B200" s="47"/>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B201" s="48"/>
+      <c r="B201" s="47"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B202" s="48"/>
+      <c r="B202" s="47"/>
       <c r="C202" s="3"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B203" s="48"/>
+      <c r="B203" s="47"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B204" s="48"/>
+      <c r="B204" s="47"/>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B205" s="48"/>
+      <c r="B205" s="47"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B206" s="48"/>
+      <c r="B206" s="47"/>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B207" s="48"/>
+      <c r="B207" s="47"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B208" s="48"/>
+      <c r="B208" s="47"/>
       <c r="C208" s="3"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209" s="48"/>
+      <c r="B209" s="47"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B210" s="48"/>
+      <c r="B210" s="47"/>
       <c r="C210" s="3"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B211" s="48"/>
+      <c r="B211" s="47"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B212" s="48"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B213" s="48"/>
+      <c r="B213" s="47"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B214" s="48"/>
+      <c r="B214" s="47"/>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215" s="48"/>
+      <c r="B215" s="47"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B216" s="48"/>
+      <c r="B216" s="47"/>
       <c r="C216" s="3"/>
     </row>
   </sheetData>

--- a/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
+++ b/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossiers\RODI\src\D1640\Portals\0\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F630D93-635D-4F92-AFD0-A330FAE57ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57744338-A14C-4D0A-B22F-2E35D1FD580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche renseignement" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>Date de Charte</t>
   </si>
@@ -1210,10 +1210,10 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.3"/>
@@ -2660,7 +2660,9 @@
       <c r="E119" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F119" s="6"/>
+      <c r="F119" s="54" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
@@ -2673,7 +2675,7 @@
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
       <c r="E120" s="53"/>
-      <c r="F120" s="6"/>
+      <c r="F120" s="53"/>
     </row>
     <row r="121" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
@@ -2686,7 +2688,7 @@
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
       <c r="E121" s="53"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="53"/>
     </row>
     <row r="122" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
@@ -2699,7 +2701,7 @@
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
       <c r="E122" s="52"/>
-      <c r="F122" s="6"/>
+      <c r="F122" s="52"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B123" s="47"/>

--- a/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
+++ b/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossiers\RODI\src\D1640\Portals\0\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57744338-A14C-4D0A-B22F-2E35D1FD580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA3A1C-7EF4-4F22-B266-9AB886CA3D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17010" windowHeight="9810" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche renseignement" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>Date de Charte</t>
   </si>
@@ -408,6 +408,12 @@
   </si>
   <si>
     <t>n-3</t>
+  </si>
+  <si>
+    <t>prochainement disponible ...</t>
+  </si>
+  <si>
+    <t>prochainement disponible …</t>
   </si>
 </sst>
 </file>
@@ -1210,16 +1216,16 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" style="29" customWidth="1"/>
     <col min="3" max="3" width="82.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" customWidth="1"/>
@@ -1457,7 +1463,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1859,7 +1865,9 @@
       <c r="B59" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="59"/>
+      <c r="C59" s="59" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -1869,7 +1877,9 @@
       <c r="B60" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="59"/>
+      <c r="C60" s="59" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="74" t="s">
@@ -1925,7 +1935,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f>1+A64</f>
         <v>53</v>
@@ -1990,7 +2000,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" ht="139.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="116.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f>1+A69</f>
         <v>56</v>
@@ -2204,7 +2214,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ref="A87:A97" si="3">1+A86</f>
         <v>69</v>
@@ -2581,7 +2591,7 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -2664,7 +2674,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="69.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f>1+A119</f>
         <v>97</v>

--- a/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
+++ b/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossiers\RODI\src\D1640\Portals\0\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA3A1C-7EF4-4F22-B266-9AB886CA3D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D0E8B-6B24-4EC6-9C88-1C2E0F2BEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17010" windowHeight="9810" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
+    <workbookView xWindow="6255" yWindow="2040" windowWidth="28290" windowHeight="17820" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche renseignement" sheetId="5" r:id="rId1"/>
@@ -680,7 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,6 +894,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1216,10 +1222,10 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.3"/>
@@ -2099,13 +2105,13 @@
         <f>1+A76</f>
         <v>62</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
     </row>
     <row r="78" spans="1:6" ht="96" x14ac:dyDescent="0.3">
       <c r="A78" s="1">

--- a/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
+++ b/web/Portals/0/Modeles/Fiche de renseignement club generique gabarit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossiers\RODI\src\D1640\Portals\0\Modeles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D0E8B-6B24-4EC6-9C88-1C2E0F2BEFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572F5783-4CA8-481B-BDBC-F5C0B851B9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="2040" windowWidth="28290" windowHeight="17820" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
+    <workbookView xWindow="465" yWindow="0" windowWidth="12825" windowHeight="13605" xr2:uid="{6111D200-C7AA-4AB5-B21C-99291D5953BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche renseignement" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>Date de Charte</t>
   </si>
@@ -300,10 +300,6 @@
   </si>
   <si>
     <t xml:space="preserve">Taux de comptes personnels "Mon Rotary" des membres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Montant de Cotisations individuelles des rotariens</t>
   </si>
   <si>
     <t>Préciser le contenu, particularités</t>
@@ -410,10 +406,7 @@
     <t>n-3</t>
   </si>
   <si>
-    <t>prochainement disponible ...</t>
-  </si>
-  <si>
-    <t>prochainement disponible …</t>
+    <t>Montant  annuel de Cotisations individuelles des rotariens (payées annuellement, trimestriellement ou mensuellement) ?</t>
   </si>
 </sst>
 </file>
@@ -680,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,6 +846,12 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,10 +894,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1221,10 @@
   <dimension ref="A1:F216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.3"/>
@@ -1244,17 +1243,17 @@
     <row r="1" spans="1:6" ht="124.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="36"/>
-      <c r="C1" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="C1" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
       <c r="B2" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="41"/>
     </row>
@@ -1266,14 +1265,14 @@
     </row>
     <row r="4" spans="1:6" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+        <v>94</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1283,9 +1282,9 @@
         <v>2</v>
       </c>
       <c r="C5" s="48"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1323,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="50"/>
     </row>
@@ -1423,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="11"/>
     </row>
@@ -1433,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="11"/>
     </row>
@@ -1453,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="4"/>
@@ -1464,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
@@ -1475,7 +1474,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="12"/>
     </row>
@@ -1485,7 +1484,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="12"/>
     </row>
@@ -1498,13 +1497,13 @@
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
     </row>
-    <row r="27" spans="1:6" ht="51.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f>1+A25</f>
         <v>20</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C27" s="67"/>
       <c r="D27" s="33"/>
@@ -1517,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="33"/>
@@ -1530,7 +1529,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="33"/>
@@ -1543,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="13"/>
     </row>
@@ -1553,7 +1552,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="13"/>
     </row>
@@ -1617,7 +1616,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>81</v>
@@ -1707,7 +1706,7 @@
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="57" t="s">
         <v>88</v>
@@ -1745,7 +1744,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>87</v>
@@ -1868,30 +1867,26 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="59" t="s">
-        <v>128</v>
-      </c>
+      <c r="C59" s="85"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="59" t="s">
-        <v>129</v>
-      </c>
+      <c r="C60" s="85"/>
     </row>
     <row r="61" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="75"/>
+      <c r="C61" s="77"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2055,13 +2050,13 @@
       </c>
       <c r="C73" s="34"/>
       <c r="D73" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="55" t="s">
+      <c r="F73" s="55" t="s">
         <v>126</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2070,7 +2065,7 @@
         <v>59</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C74" s="64"/>
     </row>
@@ -2105,13 +2100,10 @@
         <f>1+A76</f>
         <v>62</v>
       </c>
-      <c r="B77" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
+      <c r="B77" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="69"/>
     </row>
     <row r="78" spans="1:6" ht="96" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -2140,10 +2132,10 @@
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="77"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -2197,10 +2189,10 @@
       <c r="F84" s="33"/>
     </row>
     <row r="85" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="78" t="s">
+      <c r="B85" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="79"/>
+      <c r="C85" s="81"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -2361,7 +2353,7 @@
         <v>78</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>81</v>
@@ -2376,7 +2368,7 @@
         <v>79</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>81</v>
@@ -2391,7 +2383,7 @@
         <v>80</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>81</v>
@@ -2406,7 +2398,7 @@
         <v>79</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>81</v>
@@ -2431,10 +2423,10 @@
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="B101" s="78" t="s">
+      <c r="B101" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="79"/>
+      <c r="C101" s="81"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
@@ -2511,10 +2503,10 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
+      <c r="B107" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C107" s="79"/>
+      <c r="C107" s="81"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
@@ -2525,7 +2517,7 @@
         <v>86</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="6"/>
@@ -2551,7 +2543,7 @@
         <v>88</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="6"/>
@@ -2624,10 +2616,10 @@
       <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="C116" s="73"/>
+      <c r="B116" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116" s="75"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -2664,20 +2656,20 @@
         <v>96</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="54">
         <f>C2</f>
         <v>0</v>
       </c>
       <c r="D119" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E119" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="E119" s="54" t="s">
+      <c r="F119" s="54" t="s">
         <v>126</v>
-      </c>
-      <c r="F119" s="54" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
@@ -2686,7 +2678,7 @@
         <v>97</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" s="52"/>
       <c r="D120" s="52"/>
@@ -2699,7 +2691,7 @@
         <v>98</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="52"/>
       <c r="D121" s="52"/>
@@ -2712,7 +2704,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
